--- a/medicine/Enfance/Bernhard_Severin_Ingemann/Bernhard_Severin_Ingemann.xlsx
+++ b/medicine/Enfance/Bernhard_Severin_Ingemann/Bernhard_Severin_Ingemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Severin Ingemann, né le 28 mai 1789 dans le petit village de Thorkildstrup sur l'île de Falster, et mort le 24 février 1862 à Sorø, dans la région du Sjælland, est un écrivain et poète danois principalement connu pour ses romans historiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un curé, il devient orphelin de père alors qu'il est encore enfant.
 Il est étudiant à l'université de Copenhague quand il publie, à partir de 1811, ses premiers poèmes, où se perçoit l'influence du romantisme allemand, tout comme dans le poème allégorique De sorte Riddere (1814). 
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans et récits
-De Underjordiske (1817)
+          <t>Romans et récits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De Underjordiske (1817)
 Reiselyren (1820)
 Magnetismen i Barbeerstuen (1821)
 Kampen for Valhal (1821)
@@ -559,26 +578,162 @@
 Ridderløftet (1843)
 Det øde Slot (1845)
 Den stumme Frøken (1850)
-Landsbybørnene (1852)
-Littérature d'enfance et de jeunesse
-Valdemar Sejr (1826)
+Landsbybørnene (1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Valdemar Sejr (1826)
 Erik Menveds Barndom (1828) Publié en français sous le titre La Jeunesse d'Éric Menwed, traduit par S. Ingemann par W. Duckett, dans le volume Les Mille et Un Romans, Paris, Boulé, 1944 (BNF 30634924)
 Kong Erik og de Fredløse (1833)
-Prinds Otto af Danmark og hans Samtid (1835)
-Recueils de nouvelles
-Eventyr og Fortællinger (1820)
+Prinds Otto af Danmark og hans Samtid (1835)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eventyr og Fortællinger (1820)
 Noveller (1827)
 Nye Eventyr og Fortællinger (1847)
-Fire nye Fortællinger (1850)
-Théâtre
-Masaniello (1815)
+Fire nye Fortællinger (1850)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Masaniello (1815)
 Blanca (1815)
 Røsten i Ørkenen (1815)
 Reinald Underbarnet (1816)
 Hyrden af Tolosa (1816)
-Løveridderen (1816)
-Poésie
-Digte (1811-1812)
+Løveridderen (1816)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Digte (1811-1812)
 Procne (1813)
 De sorte Riddere (1814)
 Tassos Befrielse (1819)
@@ -595,9 +750,43 @@
 Skyhimlen eller Den Luke-Howardske Skyformationslære, betragtet som Billedform for Naturpoesien (1840), recueil contenant également des essais
 Folkedands-Viser og Blandede Digte (1842)
 Confirmations-Gave, Følgeblade til Luthers lille Catechismus (1854)
-Tankebreve fra en Afdød (1855)
-Chansons
-I sne står urt og busk i skjul (1831)
+Tankebreve fra en Afdød (1855)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chansons</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>I sne står urt og busk i skjul (1831)
 I alle de riger og lande (1837)
 I østen stiger solen op (1837)
 Lysets engel går med glans (1837)
@@ -607,15 +796,117 @@
 Den store mester kommer (1841)
 Stork! stork! Langeben! (1842)
 Dejlig er jorden (1850)
-Glade jul, dejlige jul (1850)
-Récits de voyages
-Huldre-Gaverne eller Ole Navnløses Levnets-Eventyr (1831)
+Glade jul, dejlige jul (1850)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récits de voyages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Huldre-Gaverne eller Ole Navnløses Levnets-Eventyr (1831)
 De fire Rubiner (1849)
-Guldæblet (1856)
-Autobiographie
-Levnetsbog (1862), en collaboration avec J. Galskjøt
-Autres publications
-Morgenpsalmer til Brug for Eleverne i Sorøe Academies Skole (1823)
+Guldæblet (1856)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Levnetsbog (1862), en collaboration avec J. Galskjøt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Morgenpsalmer til Brug for Eleverne i Sorøe Academies Skole (1823)
 Grundtræk til En Nord-Slavisk og Vendisk Gudelære (1824), thèse
 Tale paa Hs. Majestæt Kongens Fødselsdag (1824)
 Høimesse-Psalmer til Kirkeaarets Helligdage (1825)
@@ -625,31 +916,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bernhard_Severin_Ingemann</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Severin_Ingemann</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Adaptation au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1910 : Valdemar Sejr, film muet danois réalisé par Gunnar Helsengreen, adaptation du roman éponyme</t>
         </is>
